--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Igf2</t>
+  </si>
+  <si>
+    <t>Igf1r</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Igf2</t>
-  </si>
-  <si>
-    <t>Igf1r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H2">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I2">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J2">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N2">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O2">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P2">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q2">
-        <v>152.6066556807815</v>
+        <v>151.299827980704</v>
       </c>
       <c r="R2">
-        <v>610.426622723126</v>
+        <v>605.199311922816</v>
       </c>
       <c r="S2">
-        <v>0.01539745618896684</v>
+        <v>0.05080200737418081</v>
       </c>
       <c r="T2">
-        <v>0.01220194997432871</v>
+        <v>0.03725643951835331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H3">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I3">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J3">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P3">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q3">
-        <v>116.7041870969609</v>
+        <v>78.54183202177001</v>
       </c>
       <c r="R3">
-        <v>700.225122581765</v>
+        <v>471.25099213062</v>
       </c>
       <c r="S3">
-        <v>0.01177502776584824</v>
+        <v>0.02637202423032831</v>
       </c>
       <c r="T3">
-        <v>0.01399695163752102</v>
+        <v>0.02901049908747678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H4">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I4">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J4">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N4">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O4">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P4">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q4">
-        <v>45.05752746659817</v>
+        <v>30.153119839128</v>
       </c>
       <c r="R4">
-        <v>270.345164799589</v>
+        <v>180.918719034768</v>
       </c>
       <c r="S4">
-        <v>0.004546140547115636</v>
+        <v>0.0101245258297141</v>
       </c>
       <c r="T4">
-        <v>0.00540398805342155</v>
+        <v>0.01113746691489369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H5">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I5">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J5">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N5">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O5">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P5">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q5">
-        <v>212.8153964840861</v>
+        <v>94.15609706357401</v>
       </c>
       <c r="R5">
-        <v>851.2615859363442</v>
+        <v>376.624388254296</v>
       </c>
       <c r="S5">
-        <v>0.02147229902315452</v>
+        <v>0.03161483262200279</v>
       </c>
       <c r="T5">
-        <v>0.01701605221660572</v>
+        <v>0.02318522752042144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H6">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I6">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J6">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N6">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O6">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P6">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q6">
-        <v>118.1507746800975</v>
+        <v>373.430832717384</v>
       </c>
       <c r="R6">
-        <v>708.904648080585</v>
+        <v>2240.584996304304</v>
       </c>
       <c r="S6">
-        <v>0.01192098318853597</v>
+        <v>0.1253870289916952</v>
       </c>
       <c r="T6">
-        <v>0.01417044855262125</v>
+        <v>0.1379317817386866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.2221155</v>
+        <v>8.898474</v>
       </c>
       <c r="H7">
-        <v>26.444231</v>
+        <v>17.796948</v>
       </c>
       <c r="I7">
-        <v>0.06841318651461004</v>
+        <v>0.2519338923648123</v>
       </c>
       <c r="J7">
-        <v>0.0667136150423064</v>
+        <v>0.2469186037388528</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N7">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O7">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P7">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q7">
-        <v>32.7195131268775</v>
+        <v>22.734204009582</v>
       </c>
       <c r="R7">
-        <v>196.317078761265</v>
+        <v>136.405224057492</v>
       </c>
       <c r="S7">
-        <v>0.003301279800988833</v>
+        <v>0.007633473316891089</v>
       </c>
       <c r="T7">
-        <v>0.003924224607808138</v>
+        <v>0.008397188959021007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>4.27412</v>
       </c>
       <c r="I8">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J8">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N8">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O8">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P8">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q8">
-        <v>16.44364093825333</v>
+        <v>24.22413928384</v>
       </c>
       <c r="R8">
-        <v>98.66184562951999</v>
+        <v>145.34483570304</v>
       </c>
       <c r="S8">
-        <v>0.001659103528639496</v>
+        <v>0.008133749515483728</v>
       </c>
       <c r="T8">
-        <v>0.001972173001524522</v>
+        <v>0.008947516915494962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>4.27412</v>
       </c>
       <c r="I9">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J9">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P9">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q9">
         <v>12.57508553642222</v>
@@ -1013,10 +1013,10 @@
         <v>113.1757698278</v>
       </c>
       <c r="S9">
-        <v>0.001268780367119701</v>
+        <v>0.004222341800902447</v>
       </c>
       <c r="T9">
-        <v>0.002262294975904625</v>
+        <v>0.006967169559621474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>4.27412</v>
       </c>
       <c r="I10">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J10">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N10">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O10">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P10">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q10">
-        <v>4.855029421364444</v>
+        <v>4.82772111888</v>
       </c>
       <c r="R10">
-        <v>43.69526479228</v>
+        <v>43.44949006992</v>
       </c>
       <c r="S10">
-        <v>0.0004898548000945304</v>
+        <v>0.001621005966464873</v>
       </c>
       <c r="T10">
-        <v>0.0008734341119199159</v>
+        <v>0.00267477716349373</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>4.27412</v>
       </c>
       <c r="I11">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J11">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N11">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O11">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P11">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q11">
-        <v>22.93124077914667</v>
+        <v>15.07503637070667</v>
       </c>
       <c r="R11">
-        <v>137.58744467488</v>
+        <v>90.45021822424</v>
       </c>
       <c r="S11">
-        <v>0.002313678742781244</v>
+        <v>0.005061751352211422</v>
       </c>
       <c r="T11">
-        <v>0.002750265231764117</v>
+        <v>0.005568170713854064</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>4.27412</v>
       </c>
       <c r="I12">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J12">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N12">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O12">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P12">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q12">
-        <v>12.7309579438</v>
+        <v>59.78883535664</v>
       </c>
       <c r="R12">
-        <v>114.5786214942</v>
+        <v>538.09951820976</v>
       </c>
       <c r="S12">
-        <v>0.001284507325770105</v>
+        <v>0.02007532259104142</v>
       </c>
       <c r="T12">
-        <v>0.002290336881708889</v>
+        <v>0.03312573520836017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>4.27412</v>
       </c>
       <c r="I13">
-        <v>0.007371643585723858</v>
+        <v>0.040336342614636</v>
       </c>
       <c r="J13">
-        <v>0.01078276756562225</v>
+        <v>0.05930004080544066</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N13">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O13">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P13">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q13">
-        <v>3.525586240866666</v>
+        <v>3.639901854386666</v>
       </c>
       <c r="R13">
-        <v>31.7302761678</v>
+        <v>32.75911668948</v>
       </c>
       <c r="S13">
-        <v>0.0003557188213187819</v>
+        <v>0.001222171388532106</v>
       </c>
       <c r="T13">
-        <v>0.0006342633628001855</v>
+        <v>0.00201667124461626</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H14">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I14">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J14">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N14">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O14">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P14">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q14">
-        <v>1964.399746341036</v>
+        <v>424.857559907592</v>
       </c>
       <c r="R14">
-        <v>7857.598985364143</v>
+        <v>1699.430239630368</v>
       </c>
       <c r="S14">
-        <v>0.1982007855225727</v>
+        <v>0.1426546029791562</v>
       </c>
       <c r="T14">
-        <v>0.1570672480011363</v>
+        <v>0.1046179641832182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H15">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I15">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J15">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P15">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q15">
-        <v>1502.25214298486</v>
+        <v>220.5494318717725</v>
       </c>
       <c r="R15">
-        <v>9013.51285790916</v>
+        <v>1323.296591230635</v>
       </c>
       <c r="S15">
-        <v>0.1515717742008281</v>
+        <v>0.07405397622626592</v>
       </c>
       <c r="T15">
-        <v>0.1801730607596081</v>
+        <v>0.08146294690816647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H16">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I16">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J16">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N16">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O16">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P16">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q16">
-        <v>579.994333348636</v>
+        <v>84.67148369849399</v>
       </c>
       <c r="R16">
-        <v>3479.966000091816</v>
+        <v>508.0289021909639</v>
       </c>
       <c r="S16">
-        <v>0.05851931750778355</v>
+        <v>0.02843017997206389</v>
       </c>
       <c r="T16">
-        <v>0.06956179410403103</v>
+        <v>0.03127456970814761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H17">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I17">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J17">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N17">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O17">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P17">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q17">
-        <v>2739.425151582384</v>
+        <v>264.3950768665395</v>
       </c>
       <c r="R17">
-        <v>10957.70060632954</v>
+        <v>1057.580307466158</v>
       </c>
       <c r="S17">
-        <v>0.2763980284233145</v>
+        <v>0.08877604703148814</v>
       </c>
       <c r="T17">
-        <v>0.2190358507557258</v>
+        <v>0.06510529008324366</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H18">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I18">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J18">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N18">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O18">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P18">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q18">
-        <v>1520.87306268654</v>
+        <v>1048.612642195482</v>
       </c>
       <c r="R18">
-        <v>9125.23837611924</v>
+        <v>6291.675853172892</v>
       </c>
       <c r="S18">
-        <v>0.1534505572331005</v>
+        <v>0.3520931113567961</v>
       </c>
       <c r="T18">
-        <v>0.1824063663418152</v>
+        <v>0.3873194107707686</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>170.199132</v>
+        <v>24.9873645</v>
       </c>
       <c r="H19">
-        <v>340.398264</v>
+        <v>49.974729</v>
       </c>
       <c r="I19">
-        <v>0.8806355505017887</v>
+        <v>0.7074430962458654</v>
       </c>
       <c r="J19">
-        <v>0.8587581444726217</v>
+        <v>0.6933599124359724</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N19">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O19">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P19">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q19">
-        <v>421.17562304286</v>
+        <v>63.8387932812735</v>
       </c>
       <c r="R19">
-        <v>2527.05373825716</v>
+        <v>383.032759687641</v>
       </c>
       <c r="S19">
-        <v>0.04249508761418943</v>
+        <v>0.02143517868009522</v>
       </c>
       <c r="T19">
-        <v>0.05051382451030513</v>
+        <v>0.0235797307824278</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H20">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I20">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J20">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N20">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O20">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P20">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q20">
-        <v>95.16795857953666</v>
+        <v>0.172159989632</v>
       </c>
       <c r="R20">
-        <v>571.0077514772199</v>
+        <v>1.032959937792</v>
       </c>
       <c r="S20">
-        <v>0.009602100683517989</v>
+        <v>5.780623269405954E-05</v>
       </c>
       <c r="T20">
-        <v>0.01141399761923424</v>
+        <v>6.358964507900455E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H21">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I21">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J21">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.479315</v>
       </c>
       <c r="O21">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P21">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q21">
-        <v>72.77860322772777</v>
+        <v>0.08937063027111111</v>
       </c>
       <c r="R21">
-        <v>655.00742904955</v>
+        <v>0.80433567244</v>
       </c>
       <c r="S21">
-        <v>0.007343096208314735</v>
+        <v>3.000801440862979E-05</v>
       </c>
       <c r="T21">
-        <v>0.01309308536777467</v>
+        <v>4.951539557688177E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H22">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I22">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J22">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N22">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O22">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P22">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q22">
-        <v>28.09859693542555</v>
+        <v>0.034310421024</v>
       </c>
       <c r="R22">
-        <v>252.88737241883</v>
+        <v>0.308793789216</v>
       </c>
       <c r="S22">
-        <v>0.002835046173802878</v>
+        <v>1.152042461075894E-05</v>
       </c>
       <c r="T22">
-        <v>0.005055020460327467</v>
+        <v>1.90095343879642E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H23">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I23">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J23">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N23">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O23">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P23">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q23">
-        <v>132.7150952056134</v>
+        <v>0.1071376809253333</v>
       </c>
       <c r="R23">
-        <v>796.29057123368</v>
+        <v>0.642826085552</v>
       </c>
       <c r="S23">
-        <v>0.01339047012679106</v>
+        <v>3.597366453791054E-05</v>
       </c>
       <c r="T23">
-        <v>0.01591722469750482</v>
+        <v>3.957276669911726E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H24">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I24">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J24">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N24">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O24">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P24">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q24">
-        <v>73.68071845055</v>
+        <v>0.424916863072</v>
       </c>
       <c r="R24">
-        <v>663.1264660549499</v>
+        <v>3.824251767648</v>
       </c>
       <c r="S24">
-        <v>0.007434116351301556</v>
+        <v>0.0001426745152278069</v>
       </c>
       <c r="T24">
-        <v>0.01325537855698334</v>
+        <v>0.0002354232760636455</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>8.245523333333333</v>
+        <v>0.01012533333333333</v>
       </c>
       <c r="H25">
-        <v>24.73657</v>
+        <v>0.030376</v>
       </c>
       <c r="I25">
-        <v>0.04266356058634507</v>
+        <v>0.0002866687746862941</v>
       </c>
       <c r="J25">
-        <v>0.06240552082785333</v>
+        <v>0.000421443019734136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N25">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O25">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P25">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q25">
-        <v>20.40441326828333</v>
+        <v>0.02586863698933333</v>
       </c>
       <c r="R25">
-        <v>183.63971941455</v>
+        <v>0.232817732904</v>
       </c>
       <c r="S25">
-        <v>0.002058731042616852</v>
+        <v>8.685923207128313E-06</v>
       </c>
       <c r="T25">
-        <v>0.003670814126028793</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I26">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J26">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>11.541773</v>
-      </c>
-      <c r="N26">
-        <v>23.083546</v>
-      </c>
-      <c r="O26">
-        <v>0.2250656192673999</v>
-      </c>
-      <c r="P26">
-        <v>0.1829004464319742</v>
-      </c>
-      <c r="Q26">
-        <v>2.043417048042667</v>
-      </c>
-      <c r="R26">
-        <v>12.260502288256</v>
-      </c>
-      <c r="S26">
-        <v>0.0002061733437029067</v>
-      </c>
-      <c r="T26">
-        <v>0.0002450778357504537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H27">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J27">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>8.826438333333334</v>
-      </c>
-      <c r="N27">
-        <v>26.479315</v>
-      </c>
-      <c r="O27">
-        <v>0.1721163472386074</v>
-      </c>
-      <c r="P27">
-        <v>0.20980652343071</v>
-      </c>
-      <c r="Q27">
-        <v>1.562679716871112</v>
-      </c>
-      <c r="R27">
-        <v>14.06411745184</v>
-      </c>
-      <c r="S27">
-        <v>0.0001576686964967033</v>
-      </c>
-      <c r="T27">
-        <v>0.0002811306899015656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H28">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J28">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.407739666666667</v>
-      </c>
-      <c r="N28">
-        <v>10.223219</v>
-      </c>
-      <c r="O28">
-        <v>0.06645123226565072</v>
-      </c>
-      <c r="P28">
-        <v>0.0810027765695895</v>
-      </c>
-      <c r="Q28">
-        <v>0.6033244051982223</v>
-      </c>
-      <c r="R28">
-        <v>5.429919646784001</v>
-      </c>
-      <c r="S28">
-        <v>6.087323685413806E-05</v>
-      </c>
-      <c r="T28">
-        <v>0.0001085398398895437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H29">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J29">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>16.095412</v>
-      </c>
-      <c r="N29">
-        <v>32.19082400000001</v>
-      </c>
-      <c r="O29">
-        <v>0.3138619923597475</v>
-      </c>
-      <c r="P29">
-        <v>0.2550611626399649</v>
-      </c>
-      <c r="Q29">
-        <v>2.849617582677334</v>
-      </c>
-      <c r="R29">
-        <v>17.09770549606401</v>
-      </c>
-      <c r="S29">
-        <v>0.0002875160437062738</v>
-      </c>
-      <c r="T29">
-        <v>0.0003417697383644507</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H30">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J30">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>8.935845</v>
-      </c>
-      <c r="N30">
-        <v>26.807535</v>
-      </c>
-      <c r="O30">
-        <v>0.174249787151636</v>
-      </c>
-      <c r="P30">
-        <v>0.2124071457323227</v>
-      </c>
-      <c r="Q30">
-        <v>1.58204965664</v>
-      </c>
-      <c r="R30">
-        <v>14.23844690976</v>
-      </c>
-      <c r="S30">
-        <v>0.0001596230529279081</v>
-      </c>
-      <c r="T30">
-        <v>0.0002846153991940639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.1770453333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.5311360000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.0009160588115324389</v>
-      </c>
-      <c r="J31">
-        <v>0.001339952091596479</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.474605</v>
-      </c>
-      <c r="N31">
-        <v>7.423815</v>
-      </c>
-      <c r="O31">
-        <v>0.0482550217169584</v>
-      </c>
-      <c r="P31">
-        <v>0.05882194519543864</v>
-      </c>
-      <c r="Q31">
-        <v>0.4381172670933334</v>
-      </c>
-      <c r="R31">
-        <v>3.943055403840001</v>
-      </c>
-      <c r="S31">
-        <v>4.420443784450895E-05</v>
-      </c>
-      <c r="T31">
-        <v>7.881858849640146E-05</v>
+        <v>1.433240192752275E-05</v>
       </c>
     </row>
   </sheetData>
